--- a/Source/Test/Data/Quotation2.xlsx
+++ b/Source/Test/Data/Quotation2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Excel.Report.PDF\Source\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD9531A-3848-43F2-84A3-EC2C75137972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E4114C-491C-47F2-8A0D-5515B8964AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19905" yWindow="4875" windowWidth="34035" windowHeight="20385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7125" yWindow="4950" windowWidth="34035" windowHeight="20385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,15 +201,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#LoopRow($Details, x, 1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>$Tax</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>$Client</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#LoopRowData($Details, x, 1)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -563,71 +563,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="5" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="5" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="5" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -642,6 +577,71 @@
     <xf numFmtId="5" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="5" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="5" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -991,7 +991,7 @@
   <dimension ref="A2:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="L9:M9"/>
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18"/>
@@ -1000,19 +1000,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="43.5">
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
     </row>
     <row r="4" spans="2:24" ht="30.75" thickBot="1">
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1108,301 +1108,301 @@
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="2:24" ht="26.25" customHeight="1" thickTop="1">
-      <c r="R13" s="31" t="s">
+      <c r="R13" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="33"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="41"/>
     </row>
     <row r="14" spans="2:24" ht="40.5" customHeight="1" thickBot="1">
-      <c r="R14" s="16" t="s">
+      <c r="R14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="18"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="34"/>
     </row>
     <row r="15" spans="2:24" ht="18.75" thickTop="1"/>
     <row r="16" spans="2:24" ht="18.75" thickBot="1"/>
     <row r="17" spans="1:24" ht="31.5" customHeight="1" thickTop="1">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37" t="s">
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="37" t="s">
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="37" t="s">
+      <c r="Q17" s="43"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="35"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="37" t="s">
+      <c r="T17" s="43"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="W17" s="35"/>
-      <c r="X17" s="38"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="46"/>
     </row>
     <row r="18" spans="1:24" ht="36" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="28" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="24" t="s">
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="24" t="s">
+      <c r="Q18" s="27"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="T18" s="25"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="24" t="s">
+      <c r="T18" s="27"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="W18" s="25"/>
-      <c r="X18" s="26"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="29"/>
     </row>
     <row r="19" spans="1:24" ht="36" customHeight="1">
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="46"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="21"/>
     </row>
     <row r="20" spans="1:24" ht="36" customHeight="1">
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="46"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="36" customHeight="1">
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="46"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="21"/>
     </row>
     <row r="22" spans="1:24" ht="36" customHeight="1">
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="46"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="21"/>
     </row>
     <row r="23" spans="1:24" ht="36" customHeight="1">
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="46"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="21"/>
     </row>
     <row r="24" spans="1:24" ht="36" customHeight="1">
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="46"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="21"/>
     </row>
     <row r="25" spans="1:24" ht="36" customHeight="1">
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="46"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="21"/>
     </row>
     <row r="26" spans="1:24" ht="36" customHeight="1">
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="46"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="21"/>
     </row>
     <row r="27" spans="1:24" ht="31.5" customHeight="1" thickBot="1">
       <c r="B27" s="7"/>
@@ -1427,11 +1427,11 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
-      <c r="V27" s="29" t="s">
+      <c r="V27" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="W27" s="29"/>
-      <c r="X27" s="30"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="38"/>
     </row>
     <row r="28" spans="1:24" ht="9.75" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="29" spans="1:24" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
@@ -1457,11 +1457,11 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
-      <c r="V29" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="W29" s="14"/>
-      <c r="X29" s="15"/>
+      <c r="V29" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="W29" s="30"/>
+      <c r="X29" s="31"/>
     </row>
     <row r="30" spans="1:24" ht="9.75" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="31" spans="1:24" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
@@ -1487,55 +1487,15 @@
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
-      <c r="V31" s="14" t="s">
+      <c r="V31" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="W31" s="14"/>
-      <c r="X31" s="15"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="31"/>
     </row>
     <row r="32" spans="1:24" ht="18.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="I26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="I25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="I24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="I23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="I21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
     <mergeCell ref="V29:X29"/>
     <mergeCell ref="V31:X31"/>
     <mergeCell ref="R14:X14"/>
@@ -1552,6 +1512,46 @@
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="S17:U17"/>
     <mergeCell ref="V17:X17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="I23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="I24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="I25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="I26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
